--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lamb1-Itga6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lamb1-Itga6.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.38222733333333</v>
+        <v>13.843044</v>
       </c>
       <c r="H2">
-        <v>76.146682</v>
+        <v>41.529132</v>
       </c>
       <c r="I2">
-        <v>0.1760862452187379</v>
+        <v>0.1139869403149299</v>
       </c>
       <c r="J2">
-        <v>0.1760862452187379</v>
+        <v>0.1139869403149299</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>147.4213356666667</v>
+        <v>133.3951123333333</v>
       </c>
       <c r="N2">
-        <v>442.264007</v>
+        <v>400.185337</v>
       </c>
       <c r="O2">
-        <v>0.9507885170992249</v>
+        <v>0.8984588679103155</v>
       </c>
       <c r="P2">
-        <v>0.950788517099225</v>
+        <v>0.8984588679103156</v>
       </c>
       <c r="Q2">
-        <v>3741.881855674975</v>
+        <v>1846.594409415276</v>
       </c>
       <c r="R2">
-        <v>33676.93670107477</v>
+        <v>16619.34968473748</v>
       </c>
       <c r="S2">
-        <v>0.1674207799730943</v>
+        <v>0.1024125773519126</v>
       </c>
       <c r="T2">
-        <v>0.1674207799730943</v>
+        <v>0.1024125773519126</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.38222733333333</v>
+        <v>13.843044</v>
       </c>
       <c r="H3">
-        <v>76.146682</v>
+        <v>41.529132</v>
       </c>
       <c r="I3">
-        <v>0.1760862452187379</v>
+        <v>0.1139869403149299</v>
       </c>
       <c r="J3">
-        <v>0.1760862452187379</v>
+        <v>0.1139869403149299</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.340788333333333</v>
+        <v>2.340788333333334</v>
       </c>
       <c r="N3">
-        <v>7.022365</v>
+        <v>7.022365000000001</v>
       </c>
       <c r="O3">
-        <v>0.01509682881537203</v>
+        <v>0.01576596023045448</v>
       </c>
       <c r="P3">
-        <v>0.01509682881537203</v>
+        <v>0.01576596023045448</v>
       </c>
       <c r="Q3">
-        <v>59.41442161588111</v>
+        <v>32.40363589302</v>
       </c>
       <c r="R3">
-        <v>534.72979454293</v>
+        <v>291.63272303718</v>
       </c>
       <c r="S3">
-        <v>0.002658343900808908</v>
+        <v>0.001797113567796372</v>
       </c>
       <c r="T3">
-        <v>0.002658343900808909</v>
+        <v>0.001797113567796373</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.38222733333333</v>
+        <v>13.843044</v>
       </c>
       <c r="H4">
-        <v>76.146682</v>
+        <v>41.529132</v>
       </c>
       <c r="I4">
-        <v>0.1760862452187379</v>
+        <v>0.1139869403149299</v>
       </c>
       <c r="J4">
-        <v>0.1760862452187379</v>
+        <v>0.1139869403149299</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.289533666666667</v>
+        <v>12.735128</v>
       </c>
       <c r="N4">
-        <v>15.868601</v>
+        <v>38.205384</v>
       </c>
       <c r="O4">
-        <v>0.03411465408540306</v>
+        <v>0.08577517185923002</v>
       </c>
       <c r="P4">
-        <v>0.03411465408540307</v>
+        <v>0.08577517185923003</v>
       </c>
       <c r="Q4">
-        <v>134.2601460146536</v>
+        <v>176.292937249632</v>
       </c>
       <c r="R4">
-        <v>1208.341314131882</v>
+        <v>1586.636435246688</v>
       </c>
       <c r="S4">
-        <v>0.006007121344834703</v>
+        <v>0.009777249395220903</v>
       </c>
       <c r="T4">
-        <v>0.006007121344834705</v>
+        <v>0.009777249395220905</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>284.321061</v>
       </c>
       <c r="I5">
-        <v>0.6574814128880592</v>
+        <v>0.7803892412315415</v>
       </c>
       <c r="J5">
-        <v>0.6574814128880593</v>
+        <v>0.7803892412315415</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>147.4213356666667</v>
+        <v>133.3951123333333</v>
       </c>
       <c r="N5">
-        <v>442.264007</v>
+        <v>400.185337</v>
       </c>
       <c r="O5">
-        <v>0.9507885170992249</v>
+        <v>0.8984588679103155</v>
       </c>
       <c r="P5">
-        <v>0.950788517099225</v>
+        <v>0.8984588679103156</v>
       </c>
       <c r="Q5">
-        <v>13971.6635235946</v>
+        <v>12642.34662360917</v>
       </c>
       <c r="R5">
-        <v>125744.9717123514</v>
+        <v>113781.1196124826</v>
       </c>
       <c r="S5">
-        <v>0.625125777580141</v>
+        <v>0.7011476342062809</v>
       </c>
       <c r="T5">
-        <v>0.6251257775801411</v>
+        <v>0.701147634206281</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>284.321061</v>
       </c>
       <c r="I6">
-        <v>0.6574814128880592</v>
+        <v>0.7803892412315415</v>
       </c>
       <c r="J6">
-        <v>0.6574814128880593</v>
+        <v>0.7803892412315415</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,16 +800,16 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.340788333333333</v>
+        <v>2.340788333333334</v>
       </c>
       <c r="N6">
-        <v>7.022365</v>
+        <v>7.022365000000001</v>
       </c>
       <c r="O6">
-        <v>0.01509682881537203</v>
+        <v>0.01576596023045448</v>
       </c>
       <c r="P6">
-        <v>0.01509682881537203</v>
+        <v>0.01576596023045448</v>
       </c>
       <c r="Q6">
         <v>221.845140836585</v>
@@ -818,10 +818,10 @@
         <v>1996.606267529265</v>
       </c>
       <c r="S6">
-        <v>0.009925884339659968</v>
+        <v>0.01230358574153103</v>
       </c>
       <c r="T6">
-        <v>0.009925884339659971</v>
+        <v>0.01230358574153103</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>284.321061</v>
       </c>
       <c r="I7">
-        <v>0.6574814128880592</v>
+        <v>0.7803892412315415</v>
       </c>
       <c r="J7">
-        <v>0.6574814128880593</v>
+        <v>0.7803892412315415</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.289533666666667</v>
+        <v>12.735128</v>
       </c>
       <c r="N7">
-        <v>15.868601</v>
+        <v>38.205384</v>
       </c>
       <c r="O7">
-        <v>0.03411465408540306</v>
+        <v>0.08577517185923002</v>
       </c>
       <c r="P7">
-        <v>0.03411465408540307</v>
+        <v>0.08577517185923003</v>
       </c>
       <c r="Q7">
-        <v>501.308608100629</v>
+        <v>1206.955034976936</v>
       </c>
       <c r="R7">
-        <v>4511.777472905661</v>
+        <v>10862.59531479242</v>
       </c>
       <c r="S7">
-        <v>0.0224297509682582</v>
+        <v>0.06693802128372958</v>
       </c>
       <c r="T7">
-        <v>0.02242975096825821</v>
+        <v>0.0669380212837296</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>23.99065033333333</v>
+        <v>12.827392</v>
       </c>
       <c r="H8">
-        <v>71.971951</v>
+        <v>38.482176</v>
       </c>
       <c r="I8">
-        <v>0.1664323418932028</v>
+        <v>0.1056238184535286</v>
       </c>
       <c r="J8">
-        <v>0.1664323418932028</v>
+        <v>0.1056238184535286</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>147.4213356666667</v>
+        <v>133.3951123333333</v>
       </c>
       <c r="N8">
-        <v>442.264007</v>
+        <v>400.185337</v>
       </c>
       <c r="O8">
-        <v>0.9507885170992249</v>
+        <v>0.8984588679103155</v>
       </c>
       <c r="P8">
-        <v>0.950788517099225</v>
+        <v>0.8984588679103156</v>
       </c>
       <c r="Q8">
-        <v>3536.733715651962</v>
+        <v>1711.111396783702</v>
       </c>
       <c r="R8">
-        <v>31830.60344086766</v>
+        <v>15400.00257105331</v>
       </c>
       <c r="S8">
-        <v>0.1582419595459895</v>
+        <v>0.09489865635212204</v>
       </c>
       <c r="T8">
-        <v>0.1582419595459895</v>
+        <v>0.09489865635212204</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>23.99065033333333</v>
+        <v>12.827392</v>
       </c>
       <c r="H9">
-        <v>71.971951</v>
+        <v>38.482176</v>
       </c>
       <c r="I9">
-        <v>0.1664323418932028</v>
+        <v>0.1056238184535286</v>
       </c>
       <c r="J9">
-        <v>0.1664323418932028</v>
+        <v>0.1056238184535286</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.340788333333333</v>
+        <v>2.340788333333334</v>
       </c>
       <c r="N9">
-        <v>7.022365</v>
+        <v>7.022365000000001</v>
       </c>
       <c r="O9">
-        <v>0.01509682881537203</v>
+        <v>0.01576596023045448</v>
       </c>
       <c r="P9">
-        <v>0.01509682881537203</v>
+        <v>0.01576596023045448</v>
       </c>
       <c r="Q9">
-        <v>56.15703440934611</v>
+        <v>30.02620954069334</v>
       </c>
       <c r="R9">
-        <v>505.413309684115</v>
+        <v>270.23588586624</v>
       </c>
       <c r="S9">
-        <v>0.002512600574903154</v>
+        <v>0.001665260921127076</v>
       </c>
       <c r="T9">
-        <v>0.002512600574903154</v>
+        <v>0.001665260921127077</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>23.99065033333333</v>
+        <v>12.827392</v>
       </c>
       <c r="H10">
-        <v>71.971951</v>
+        <v>38.482176</v>
       </c>
       <c r="I10">
-        <v>0.1664323418932028</v>
+        <v>0.1056238184535286</v>
       </c>
       <c r="J10">
-        <v>0.1664323418932028</v>
+        <v>0.1056238184535286</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.289533666666667</v>
+        <v>12.735128</v>
       </c>
       <c r="N10">
-        <v>15.868601</v>
+        <v>38.205384</v>
       </c>
       <c r="O10">
-        <v>0.03411465408540306</v>
+        <v>0.08577517185923002</v>
       </c>
       <c r="P10">
-        <v>0.03411465408540307</v>
+        <v>0.08577517185923003</v>
       </c>
       <c r="Q10">
-        <v>126.8993526233946</v>
+        <v>163.358479026176</v>
       </c>
       <c r="R10">
-        <v>1142.094173610551</v>
+        <v>1470.226311235584</v>
       </c>
       <c r="S10">
-        <v>0.00567778177231015</v>
+        <v>0.00905990118027953</v>
       </c>
       <c r="T10">
-        <v>0.005677781772310152</v>
+        <v>0.009059901180279531</v>
       </c>
     </row>
   </sheetData>
